--- a/data-raw/metadata/steelhead-and-lamprey-redd-metadata.xlsx
+++ b/data-raw/metadata/steelhead-and-lamprey-redd-metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKeller\Desktop\Steelhead EDI\metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/stanislaus-steelhead/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A68B329-2BC6-41BD-97C3-2B007CBA05EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9303612-56CE-6343-AB8F-1D998C600A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="9" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="96">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -109,9 +109,6 @@
     <t>age</t>
   </si>
   <si>
-    <t>est_area</t>
-  </si>
-  <si>
     <t>ambient_depth_cm</t>
   </si>
   <si>
@@ -211,9 +208,6 @@
     <t>Ambient depth of redd</t>
   </si>
   <si>
-    <t>cm</t>
-  </si>
-  <si>
     <t>Length of pot used to measure redd</t>
   </si>
   <si>
@@ -263,6 +257,63 @@
   </si>
   <si>
     <t>dateTime</t>
+  </si>
+  <si>
+    <t>redd</t>
+  </si>
+  <si>
+    <t>YYYY-MM-DD</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>nominal</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>centimeter</t>
+  </si>
+  <si>
+    <t>millisecond</t>
+  </si>
+  <si>
+    <t>Distanced covered</t>
+  </si>
+  <si>
+    <t>Distance from the wet edge to the dry edge</t>
+  </si>
+  <si>
+    <t>Distance to the center line</t>
+  </si>
+  <si>
+    <t>meter</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>2021-02-02</t>
+  </si>
+  <si>
+    <t>2022-04-20</t>
+  </si>
+  <si>
+    <t>squareMeter</t>
+  </si>
+  <si>
+    <t>est_area_m</t>
   </si>
 </sst>
 </file>
@@ -322,7 +373,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -330,10 +380,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -718,346 +767,994 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AMG33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.6640625" style="1"/>
     <col min="2" max="2" width="26.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.4140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16" style="5" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" style="3" customWidth="1"/>
-    <col min="12" max="13" width="9.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16" style="4" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" style="2" customWidth="1"/>
+    <col min="12" max="13" width="9.1640625" style="4" customWidth="1"/>
     <col min="14" max="1021" width="19.6640625" style="1"/>
     <col min="1022" max="1024" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="31" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="1:13" ht="31" x14ac:dyDescent="0.35">
+      <c r="K2" s="5"/>
+      <c r="L2" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="31" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="31" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="31" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="31" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="3"/>
       <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H10" s="3"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="C13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="3">
+        <v>23</v>
+      </c>
+      <c r="M14" s="3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="31" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="31" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="3">
+        <v>52</v>
+      </c>
+      <c r="M18" s="3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="3">
         <v>30</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="31" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="M19" s="3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="C20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="3">
+        <v>2</v>
+      </c>
+      <c r="M20" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="3">
+        <v>2</v>
+      </c>
+      <c r="M21" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="3">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="3">
+        <v>0.68</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I26" s="5"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="M26" s="3">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I27" s="5"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>33</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="31" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="31" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="31" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="1" t="s">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="C28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="C30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="31" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="C31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="C32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="31" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="C33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -1090,25 +1787,25 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14" style="4" customWidth="1"/>
+    <col min="1" max="1" width="20.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/data-raw/metadata/steelhead-and-lamprey-redd-metadata.xlsx
+++ b/data-raw/metadata/steelhead-and-lamprey-redd-metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/stanislaus-steelhead/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9303612-56CE-6343-AB8F-1D998C600A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445A4DA2-829F-2B4A-8580-49DA1358DB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="95">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -286,15 +286,6 @@
     <t>millisecond</t>
   </si>
   <si>
-    <t>Distanced covered</t>
-  </si>
-  <si>
-    <t>Distance from the wet edge to the dry edge</t>
-  </si>
-  <si>
-    <t>Distance to the center line</t>
-  </si>
-  <si>
     <t>meter</t>
   </si>
   <si>
@@ -310,10 +301,16 @@
     <t>2022-04-20</t>
   </si>
   <si>
-    <t>squareMeter</t>
-  </si>
-  <si>
     <t>est_area_m</t>
+  </si>
+  <si>
+    <t>Distance from the pot to the nearest submerged cover (log, bush, boulder)</t>
+  </si>
+  <si>
+    <t>Distance from the pot to the closest shore</t>
+  </si>
+  <si>
+    <t>Distance from the pot to the middle of the river in meters</t>
   </si>
 </sst>
 </file>
@@ -768,7 +765,7 @@
   <dimension ref="A1:AMG33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -855,10 +852,10 @@
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -1109,7 +1106,7 @@
         <v>83</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="3"/>
@@ -1123,7 +1120,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -1169,7 +1166,7 @@
         <v>84</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="3"/>
@@ -1279,7 +1276,7 @@
         <v>84</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="3"/>
@@ -1314,7 +1311,7 @@
         <v>84</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="3"/>
@@ -1346,10 +1343,10 @@
         <v>81</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="3"/>
@@ -1381,10 +1378,10 @@
         <v>81</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="3"/>
@@ -1416,10 +1413,10 @@
         <v>81</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="3"/>
@@ -1454,7 +1451,7 @@
         <v>85</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="3"/>
@@ -1489,7 +1486,7 @@
         <v>85</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="3"/>
@@ -1506,7 +1503,7 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
         <v>81</v>
@@ -1521,10 +1518,10 @@
         <v>81</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="3"/>
@@ -1541,7 +1538,7 @@
         <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
         <v>81</v>
@@ -1556,10 +1553,10 @@
         <v>81</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="3"/>
@@ -1576,7 +1573,7 @@
         <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C27" t="s">
         <v>81</v>
@@ -1591,10 +1588,10 @@
         <v>81</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="3"/>

--- a/data-raw/metadata/steelhead-and-lamprey-redd-metadata.xlsx
+++ b/data-raw/metadata/steelhead-and-lamprey-redd-metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/stanislaus-steelhead/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445A4DA2-829F-2B4A-8580-49DA1358DB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB188104-B5F3-C14C-BF9D-DCA62796B526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -196,63 +196,12 @@
     <t>Longitude redd was sampled at</t>
   </si>
   <si>
-    <t>Species of redd</t>
-  </si>
-  <si>
     <t>Age of redd</t>
   </si>
   <si>
     <t>Estimated area of redd</t>
   </si>
   <si>
-    <t>Ambient depth of redd</t>
-  </si>
-  <si>
-    <t>Length of pot used to measure redd</t>
-  </si>
-  <si>
-    <t>Width of pot used to measure redd</t>
-  </si>
-  <si>
-    <t>Depth of pot used to measure redd</t>
-  </si>
-  <si>
-    <t>Tailspin length of redd</t>
-  </si>
-  <si>
-    <t>Tailspin width of redd</t>
-  </si>
-  <si>
-    <t>Estimated pot substrate</t>
-  </si>
-  <si>
-    <t>Estimated tailspin substrate</t>
-  </si>
-  <si>
-    <t>Estimated ambient substrate</t>
-  </si>
-  <si>
-    <t>Ambient velocity</t>
-  </si>
-  <si>
-    <t>Average velocity</t>
-  </si>
-  <si>
-    <t>Whether or not fish were present on the redd</t>
-  </si>
-  <si>
-    <t>Sex of fish number one</t>
-  </si>
-  <si>
-    <t>Estimated size of fish number one</t>
-  </si>
-  <si>
-    <t>Sex of fish number two</t>
-  </si>
-  <si>
-    <t>Estimated size of fish number two</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -304,13 +253,64 @@
     <t>est_area_m</t>
   </si>
   <si>
-    <t>Distance from the pot to the nearest submerged cover (log, bush, boulder)</t>
-  </si>
-  <si>
-    <t>Distance from the pot to the closest shore</t>
-  </si>
-  <si>
-    <t>Distance from the pot to the middle of the river in meters</t>
+    <t xml:space="preserve">Species associated with redd. </t>
+  </si>
+  <si>
+    <t>Ambient depth of redd. NA values indicate "not available"</t>
+  </si>
+  <si>
+    <t>Length of pot used to measure redd. NA values indicate "not available"</t>
+  </si>
+  <si>
+    <t>Width of pot used to measure redd. NA values indicate "not available"</t>
+  </si>
+  <si>
+    <t>Depth of pot used to measure redd. NA values indicate "not available"</t>
+  </si>
+  <si>
+    <t>Tailspin length of redd. NA values indicate "not available"</t>
+  </si>
+  <si>
+    <t>Tailspin width of redd. NA values indicate "not available"</t>
+  </si>
+  <si>
+    <t>Estimated pot substrate. NA values indicate "not available"</t>
+  </si>
+  <si>
+    <t>Estimated tailspin substrate. NA values indicate "not available"</t>
+  </si>
+  <si>
+    <t>Estimated ambient substrate. NA values indicate "not available"</t>
+  </si>
+  <si>
+    <t>Ambient velocity. NA values indicate "not available"</t>
+  </si>
+  <si>
+    <t>Average velocity. NA values indicate "not available"</t>
+  </si>
+  <si>
+    <t>Distance from the pot to the nearest submerged cover (log, bush, boulder). NA values indicate "not available"</t>
+  </si>
+  <si>
+    <t>Distance from the pot to the closest shore. NA values indicate "not available"</t>
+  </si>
+  <si>
+    <t>Distance from the pot to the middle of the river in meters. NA values indicate "not available"</t>
+  </si>
+  <si>
+    <t>Whether or not fish were present on the redd. NA values indicate "not available"</t>
+  </si>
+  <si>
+    <t>Sex of fish number one. NA values indicate "not available"</t>
+  </si>
+  <si>
+    <t>Estimated size of fish number one. NA values indicate "not available"</t>
+  </si>
+  <si>
+    <t>Sex of fish number two. NA values indicate "not available"</t>
+  </si>
+  <si>
+    <t>Estimated size of fish number two. NA values indicate "not available"</t>
   </si>
 </sst>
 </file>
@@ -765,7 +765,7 @@
   <dimension ref="A1:AMG33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -835,27 +835,27 @@
         <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="5"/>
       <c r="J2" s="3" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="7" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -866,13 +866,13 @@
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -891,13 +891,13 @@
         <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -916,13 +916,13 @@
         <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -941,13 +941,13 @@
         <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -966,13 +966,13 @@
         <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -991,13 +991,13 @@
         <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1016,13 +1016,13 @@
         <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1041,13 +1041,13 @@
         <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="6"/>
@@ -1063,16 +1063,16 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1088,25 +1088,25 @@
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="3"/>
@@ -1120,19 +1120,19 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1148,25 +1148,25 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="3"/>
@@ -1183,16 +1183,16 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1208,16 +1208,16 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1233,16 +1233,16 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" t="s">
         <v>62</v>
-      </c>
-      <c r="C17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" t="s">
-        <v>79</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1258,25 +1258,25 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="3"/>
@@ -1293,25 +1293,25 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="3"/>
@@ -1328,25 +1328,25 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" t="s">
         <v>65</v>
       </c>
-      <c r="C20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" t="s">
-        <v>82</v>
-      </c>
       <c r="F20" s="3" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="3"/>
@@ -1363,25 +1363,25 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E21" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="3"/>
@@ -1398,25 +1398,25 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C22" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" t="s">
-        <v>82</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="H22" s="3" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="3"/>
@@ -1433,25 +1433,25 @@
         <v>36</v>
       </c>
       <c r="B23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" t="s">
-        <v>82</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="H23" s="3" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="3"/>
@@ -1468,25 +1468,25 @@
         <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="3"/>
@@ -1503,25 +1503,25 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E25" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="3"/>
@@ -1538,25 +1538,25 @@
         <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="3"/>
@@ -1573,25 +1573,25 @@
         <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="3"/>
@@ -1608,16 +1608,16 @@
         <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E28" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -1633,16 +1633,16 @@
         <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -1658,16 +1658,16 @@
         <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -1683,16 +1683,16 @@
         <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E31" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -1708,16 +1708,16 @@
         <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E32" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -1733,16 +1733,16 @@
         <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E33" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
